--- a/drafts/files/[10월]첨부자료_점심바우처(밀카드) 사용내역.xlsx
+++ b/drafts/files/[10월]첨부자료_점심바우처(밀카드) 사용내역.xlsx
@@ -534,7 +534,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1,230,000</t>
+          <t>123,000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -547,11 +547,15 @@
           <t>임꺽정</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1회</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>임꺽정외 2명</t>
+        </is>
       </c>
     </row>
     <row r="5">
